--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A619015E-1F54-4C79-AEA0-3AACCEC395EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28CED6-BE46-4C7A-B0C5-F6354453EA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Urban1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,9 +33,188 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={05DC949B-7B56-4CE3-8D9F-ED64DD09EA2E}</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{05DC949B-7B56-4CE3-8D9F-ED64DD09EA2E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This multiplicative figure comes from the UILPC table on the next sheet</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ben Purvis</author>
+  </authors>
+  <commentList>
+    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{3734A3CF-6F6C-4342-8CD1-4CACF541B9BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ben Purvis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated from UK data table
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{02E64830-9142-45D7-A5A8-B213D6378FD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ben Purvis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estimation from simulation run - need to update
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+  <si>
+    <t>Initial industrial capital</t>
+  </si>
+  <si>
+    <t>Initial service capital</t>
+  </si>
+  <si>
+    <t>UK population 1900</t>
+  </si>
+  <si>
+    <t>UK IOPC 1900</t>
+  </si>
+  <si>
+    <t>UK SOPC 1900</t>
+  </si>
+  <si>
+    <t>UK ICOR 1900</t>
+  </si>
+  <si>
+    <t>UK FCAOR 1900</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>UK SCOR 1900</t>
+  </si>
+  <si>
+    <t>Initial population total</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>CalendarTime</t>
+  </si>
+  <si>
+    <t>Urban1ID</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Initial arable land</t>
+  </si>
+  <si>
+    <t>Initial urban and industrial land</t>
+  </si>
+  <si>
+    <t>Initial potentially arable land</t>
+  </si>
+  <si>
+    <t>Urban and industrial land required per capita table</t>
+  </si>
+  <si>
+    <t>IOPC</t>
+  </si>
+  <si>
+    <t>Table lookup function, no interpolation</t>
+  </si>
+  <si>
+    <t>Initial persistent pollution</t>
+  </si>
+  <si>
+    <t>Persistent pollution transmission delay</t>
+  </si>
+  <si>
+    <t>Assimilation half life in 1970</t>
+  </si>
+  <si>
+    <t>PCRUM:</t>
+  </si>
+  <si>
+    <t>AIPH:</t>
+  </si>
+  <si>
+    <t>UILPC</t>
+  </si>
+  <si>
+    <t>Per capita resource usage multiplier table</t>
+  </si>
+  <si>
+    <t>PCRUM</t>
+  </si>
+  <si>
+    <t>Initial agricultural inputs</t>
+  </si>
+  <si>
+    <t>UK agricultural output 1900</t>
+  </si>
+  <si>
+    <t>FIALM</t>
+  </si>
+  <si>
+    <t>Total potentially arable land</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +222,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +270,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,84 +291,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E2AE3C-5AF6-49E5-91A3-0E78AC41EE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5895975" y="561975"/>
-          <a:ext cx="4448175" cy="676275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>Errors</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> were encountered in setting Urban initial values as functions of the UK auxhillaries, this spreadsheet then calculates these values based on specified figure for initial population.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ben Purvis" id="{A98691BD-CCAA-426F-88E4-47A277F1E45A}" userId="54e4abf3ddb4b307" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,17 +558,368 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J2" dT="2020-05-12T16:48:40.54" personId="{A98691BD-CCAA-426F-88E4-47A277F1E45A}" id="{05DC949B-7B56-4CE3-8D9F-ED64DD09EA2E}">
+    <text>This multiplicative figure comes from the UILPC table on the next sheet</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F2">
+        <f>Calculations!G2*E2*Calculations!I2/(1-Calculations!J2)</f>
+        <v>251213684.21052632</v>
+      </c>
+      <c r="G2">
+        <f>Calculations!H2*E2*Calculations!E2</f>
+        <v>114039000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I2">
+        <f>H2*0.25</f>
+        <v>25000</v>
+      </c>
+      <c r="J2">
+        <f>E2*Calculations!K14</f>
+        <v>2400</v>
+      </c>
+      <c r="K2">
+        <f>H2-I2-J2</f>
+        <v>72600</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N2">
+        <f>M2*1.4*(0.02*E2*Calculations!K17+K2*0.01*Calculations!K16)</f>
+        <v>535443.58494133828</v>
+      </c>
+      <c r="O2">
+        <f>(1-Calculations!V8)*Calculations!S8/Calculations!F2*Urban1!E2</f>
+        <v>8962965.4387034979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
+  <dimension ref="E1:V17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>37923058</v>
+      </c>
+      <c r="G2">
+        <v>265.17</v>
+      </c>
+      <c r="H2">
+        <v>380.13</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0.05</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>400</v>
+      </c>
+      <c r="O6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>600</v>
+      </c>
+      <c r="O7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>800</v>
+      </c>
+      <c r="O8">
+        <v>0.04</v>
+      </c>
+      <c r="P8">
+        <v>3.8</v>
+      </c>
+      <c r="S8">
+        <f>11269490562.2048*0.07*2.393758</f>
+        <v>1888350323.2441568</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>1000</v>
+      </c>
+      <c r="O9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1200</v>
+      </c>
+      <c r="O10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1400</v>
+      </c>
+      <c r="O11">
+        <v>0.08</v>
+      </c>
+      <c r="P11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>1600</v>
+      </c>
+      <c r="O12">
+        <v>0.09</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <f>(VLOOKUP(G2,N4:O12,2,TRUE))</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16">
+        <f>Urban1!O2*(1-0.04)/Urban1!I2</f>
+        <v>344.17787284621431</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <f>(VLOOKUP(G2,N4:P12,3,TRUE))</f>
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC28CED6-BE46-4C7A-B0C5-F6354453EA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D940FB-AE11-447B-9D88-F06E1C47962D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Urban1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <author>Ben Purvis</author>
   </authors>
   <commentList>
-    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{3734A3CF-6F6C-4342-8CD1-4CACF541B9BE}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{3734A3CF-6F6C-4342-8CD1-4CACF541B9BE}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0" shapeId="0" xr:uid="{02E64830-9142-45D7-A5A8-B213D6378FD8}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{02E64830-9142-45D7-A5A8-B213D6378FD8}">
       <text>
         <r>
           <rPr>
@@ -204,10 +204,10 @@
     <t>UK agricultural output 1900</t>
   </si>
   <si>
-    <t>FIALM</t>
-  </si>
-  <si>
     <t>Total potentially arable land</t>
+  </si>
+  <si>
+    <t>FIALM 1900</t>
   </si>
 </sst>
 </file>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -646,11 +646,11 @@
         <v>300000</v>
       </c>
       <c r="F2">
-        <f>Calculations!G2*E2*Calculations!I2/(1-Calculations!J2)</f>
+        <f>Calculations!D3*E2*Calculations!F3/(1-Calculations!G3)</f>
         <v>251213684.21052632</v>
       </c>
       <c r="G2">
-        <f>Calculations!H2*E2*Calculations!E2</f>
+        <f>Calculations!E3*E2*Calculations!B3</f>
         <v>114039000</v>
       </c>
       <c r="H2" s="1">
@@ -661,7 +661,7 @@
         <v>25000</v>
       </c>
       <c r="J2">
-        <f>E2*Calculations!K14</f>
+        <f>E2*Calculations!C12</f>
         <v>2400</v>
       </c>
       <c r="K2">
@@ -675,11 +675,11 @@
         <v>1.5</v>
       </c>
       <c r="N2">
-        <f>M2*1.4*(0.02*E2*Calculations!K17+K2*0.01*Calculations!K16)</f>
+        <f>M2*1.4*(0.02*E2*Calculations!C14+K2*0.01*Calculations!C13)</f>
         <v>535443.58494133828</v>
       </c>
       <c r="O2">
-        <f>(1-Calculations!V8)*Calculations!S8/Calculations!F2*Urban1!E2</f>
+        <f>(1-Calculations!L3)*Calculations!I3/Calculations!C3*Urban1!E2</f>
         <v>8962965.4387034979</v>
       </c>
     </row>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
-  <dimension ref="E1:V17"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,205 +717,199 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E2">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="C3">
         <v>37923058</v>
       </c>
-      <c r="G2">
+      <c r="D3">
         <v>265.17</v>
       </c>
-      <c r="H2">
+      <c r="E3">
         <v>380.13</v>
       </c>
-      <c r="I2">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="G3">
         <v>0.05</v>
       </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N5">
-        <v>200</v>
-      </c>
-      <c r="O5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N6">
-        <v>400</v>
-      </c>
-      <c r="O6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="P6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N7">
-        <v>600</v>
-      </c>
-      <c r="O7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P7">
-        <v>3.4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N8">
-        <v>800</v>
-      </c>
-      <c r="O8">
-        <v>0.04</v>
-      </c>
-      <c r="P8">
-        <v>3.8</v>
-      </c>
-      <c r="S8">
+      <c r="I3">
         <f>11269490562.2048*0.07*2.393758</f>
         <v>1888350323.2441568</v>
       </c>
-      <c r="V8" s="1">
+      <c r="L3" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N9">
-        <v>1000</v>
-      </c>
-      <c r="O9">
-        <v>5.5E-2</v>
-      </c>
-      <c r="P9">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N10">
-        <v>1200</v>
-      </c>
-      <c r="O10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P10">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N11">
-        <v>1400</v>
-      </c>
-      <c r="O11">
-        <v>0.08</v>
-      </c>
-      <c r="P11">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="N12">
-        <v>1600</v>
-      </c>
-      <c r="O12">
-        <v>0.09</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="K14">
-        <f>(VLOOKUP(G2,N4:O12,2,TRUE))</f>
+      <c r="C12">
+        <f>(VLOOKUP(D3,G13:H21,2,TRUE))</f>
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="K16">
+      <c r="C13">
         <f>Urban1!O2*(1-0.04)/Urban1!I2</f>
         <v>344.17787284621431</v>
       </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="K17">
-        <f>(VLOOKUP(G2,N4:P12,3,TRUE))</f>
+      <c r="C14">
+        <f>(VLOOKUP(D3,G13:I21,3,TRUE))</f>
         <v>0.85</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>600</v>
+      </c>
+      <c r="H16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>0.04</v>
+      </c>
+      <c r="I17">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1200</v>
+      </c>
+      <c r="H19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I19">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1400</v>
+      </c>
+      <c r="H20">
+        <v>0.08</v>
+      </c>
+      <c r="I20">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1600</v>
+      </c>
+      <c r="H21">
+        <v>0.09</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D940FB-AE11-447B-9D88-F06E1C47962D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A17967-776D-4F70-9EE2-255BB9437514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Urban1" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,8 +657,8 @@
         <v>100000</v>
       </c>
       <c r="I2">
-        <f>H2*0.25</f>
-        <v>25000</v>
+        <f>H2*0.63</f>
+        <v>63000</v>
       </c>
       <c r="J2">
         <f>E2*Calculations!C12</f>
@@ -666,7 +666,7 @@
       </c>
       <c r="K2">
         <f>H2-I2-J2</f>
-        <v>72600</v>
+        <v>34600</v>
       </c>
       <c r="L2" s="1">
         <v>10</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="N2">
         <f>M2*1.4*(0.02*E2*Calculations!C14+K2*0.01*Calculations!C13)</f>
-        <v>535443.58494133828</v>
+        <v>109947.95333732512</v>
       </c>
       <c r="O2">
         <f>(1-Calculations!L3)*Calculations!I3/Calculations!C3*Urban1!E2</f>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +805,7 @@
       </c>
       <c r="C13">
         <f>Urban1!O2*(1-0.04)/Urban1!I2</f>
-        <v>344.17787284621431</v>
+        <v>136.57852097071998</v>
       </c>
       <c r="G13">
         <v>0</v>

--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A17967-776D-4F70-9EE2-255BB9437514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416C609-81F4-4A46-ABCC-44A5D007529F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Urban1" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
+    <sheet name="World3" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Initial industrial capital</t>
   </si>
@@ -208,6 +209,9 @@
   </si>
   <si>
     <t>FIALM 1900</t>
+  </si>
+  <si>
+    <t>Food cost normal</t>
   </si>
 </sst>
 </file>
@@ -570,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +703,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6709B9E-8733-4417-ADB7-438E39F509A1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D2:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
   <dimension ref="B2:L21"/>
   <sheetViews>

--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416C609-81F4-4A46-ABCC-44A5D007529F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11124F-DF33-4F81-950C-C41A53395950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Urban1" sheetId="1" r:id="rId1"/>
     <sheet name="World3" sheetId="3" r:id="rId2"/>
     <sheet name="Calculations" sheetId="2" r:id="rId3"/>
+    <sheet name="Input" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Initial industrial capital</t>
   </si>
@@ -212,13 +213,40 @@
   </si>
   <si>
     <t>Food cost normal</t>
+  </si>
+  <si>
+    <t>Population in 1900</t>
+  </si>
+  <si>
+    <t>System Size (hectares)</t>
+  </si>
+  <si>
+    <t>Land protection policy year</t>
+  </si>
+  <si>
+    <t>Resource efficiency year</t>
+  </si>
+  <si>
+    <t>Land yield enhancement year</t>
+  </si>
+  <si>
+    <t>Land life policy implementation year</t>
+  </si>
+  <si>
+    <t>Resource technology change time</t>
+  </si>
+  <si>
+    <t>Land yield policy time</t>
+  </si>
+  <si>
+    <t>Policy year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +275,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,14 +311,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +360,281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$7" horiz="1" max="5000" page="10" val="300"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$7" horiz="1" max="1000" min="1" page="10" val="100"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$F$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$J$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1685925</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1752600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Scroll Bar 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1752600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Scroll Bar 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1752600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4100" name="Scroll Bar 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4101" name="Scroll Bar 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,10 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +926,7 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
@@ -591,11 +934,12 @@
     <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -641,12 +985,25 @@
       <c r="O1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
+        <f>Input!B4</f>
         <v>300000</v>
       </c>
       <c r="F2">
@@ -657,7 +1014,8 @@
         <f>Calculations!E3*E2*Calculations!B3</f>
         <v>114039000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
+        <f>Input!D4</f>
         <v>100000</v>
       </c>
       <c r="I2">
@@ -686,8 +1044,24 @@
         <f>(1-Calculations!L3)*Calculations!I3/Calculations!C3*Urban1!E2</f>
         <v>8962965.4387034979</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>Input!F4</f>
+        <v>2000</v>
+      </c>
+      <c r="Q2">
+        <f>Input!H4</f>
+        <v>2000</v>
+      </c>
+      <c r="R2">
+        <f>Input!J4</f>
+        <v>2000</v>
+      </c>
+      <c r="S2">
+        <f>MIN(P2:R2)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -704,10 +1078,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6709B9E-8733-4417-ADB7-438E39F509A1}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D2:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +1113,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -954,4 +1330,1295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530DBA2E-D0E5-439C-A567-5E72B17275F5}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:X58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7">
+        <f>B7*1000</f>
+        <v>300000</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7">
+        <f>D7*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8">
+        <v>300</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>100</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="35" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+    </row>
+    <row r="37" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+    </row>
+    <row r="38" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+    </row>
+    <row r="39" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+    </row>
+    <row r="40" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+    </row>
+    <row r="42" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="50" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+    </row>
+    <row r="51" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+    </row>
+    <row r="52" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+    </row>
+    <row r="53" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+    </row>
+    <row r="54" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+    </row>
+    <row r="55" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+    </row>
+    <row r="56" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+    </row>
+    <row r="57" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+    </row>
+    <row r="58" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="F4" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId4" name="Scroll Bar 1">
+              <controlPr locked="0" defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1685925</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId5" name="Scroll Bar 2">
+              <controlPr locked="0" defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1752600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId6" name="Scroll Bar 3">
+              <controlPr locked="0" defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1752600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4100" r:id="rId7" name="Scroll Bar 4">
+              <controlPr locked="0" defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>1752600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4101" r:id="rId8" name="Scroll Bar 5">
+              <controlPr locked="0" defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/Data/Urban initialisation data.xlsx
+++ b/Data/Urban initialisation data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11124F-DF33-4F81-950C-C41A53395950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E208EDA-0DE3-462D-96A3-22A03EF330E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Urban1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Initial industrial capital</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Total potentially arable land</t>
   </si>
   <si>
-    <t>FIALM 1900</t>
-  </si>
-  <si>
     <t>Food cost normal</t>
   </si>
   <si>
@@ -241,12 +238,117 @@
   <si>
     <t>Policy year</t>
   </si>
+  <si>
+    <t>Initial arable land calculations:</t>
+  </si>
+  <si>
+    <t>% jobs agriculture 1901</t>
+  </si>
+  <si>
+    <t>Initial labour force</t>
+  </si>
+  <si>
+    <t>Jobs per hectare</t>
+  </si>
+  <si>
+    <t>Fraction of PAL:</t>
+  </si>
+  <si>
+    <t>DCPH table</t>
+  </si>
+  <si>
+    <t>LYMC table</t>
+  </si>
+  <si>
+    <t>MLYC table</t>
+  </si>
+  <si>
+    <t>FIALD table</t>
+  </si>
+  <si>
+    <t>Initial AIPH</t>
+  </si>
+  <si>
+    <t>Total agricultural input</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>FIALD(1900)</t>
+  </si>
+  <si>
+    <t>MPLD/MPAI(1900)</t>
+  </si>
+  <si>
+    <t>Constant1</t>
+  </si>
+  <si>
+    <t>Industrial Output (1900)</t>
+  </si>
+  <si>
+    <t>Constant2</t>
+  </si>
+  <si>
+    <t>IFPC table</t>
+  </si>
+  <si>
+    <t>IFPC(1900)</t>
+  </si>
+  <si>
+    <t>IOPC(1900)</t>
+  </si>
+  <si>
+    <t>DCPH(1900)</t>
+  </si>
+  <si>
+    <t>FIOA table</t>
+  </si>
+  <si>
+    <t>Constant3</t>
+  </si>
+  <si>
+    <t>Constant4</t>
+  </si>
+  <si>
+    <t>Constant5</t>
+  </si>
+  <si>
+    <t>Constant6</t>
+  </si>
+  <si>
+    <t>root(b^2-4ac)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Large solution</t>
+  </si>
+  <si>
+    <t>Small solution</t>
+  </si>
+  <si>
+    <t>FALM table</t>
+  </si>
+  <si>
+    <t>Constant7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -330,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,6 +474,6860 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0627734033245846E-3"/>
+                  <c:y val="-0.21674394867308253"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$L$31:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$M$31:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC15-47C8-A06A-563EA7EEB8D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63167624"/>
+        <c:axId val="729476504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63167624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729476504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="729476504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63167624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7050524934383209E-2"/>
+                  <c:y val="-4.4071522309711286E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$G$40:$G$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$H$40:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDE8-46FD-8F0F-8EB6406DDEFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="729475520"/>
+        <c:axId val="729476176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="729475520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729476176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="729476176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729475520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6184383202099736E-2"/>
+                  <c:y val="-0.20029090113735784"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$K$63:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$L$63:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73AB-4D03-AF6B-9C7FF83C2F05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1000928272"/>
+        <c:axId val="1000929584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1000928272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000929584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1000929584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000928272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$Q$55:$Q$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$R$55:$R$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F410-4A5F-83C2-0FB333C08272}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="977010800"/>
+        <c:axId val="977017688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="977010800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977017688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="977017688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977010800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4827427821522307E-2"/>
+                  <c:y val="0.3685560659084281"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8160761154855644E-2"/>
+                  <c:y val="0.27596347331583554"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$E$76:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$F$76:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35A9-4283-A3D3-9B4EDACDE1A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="619900488"/>
+        <c:axId val="619900816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="619900488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619900816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="619900816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619900488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$Q$45:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$R$45:$R$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5869-4548-A7CA-D6244E198CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="722113256"/>
+        <c:axId val="722114568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="722113256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722114568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="722114568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722113256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$X$55:$X$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$Y$55:$Y$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-041C-4F8E-BAB8-B3B910D04658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389073888"/>
+        <c:axId val="389067656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389073888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389067656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389067656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389073888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$B$7" horiz="1" max="5000" page="10" val="300"/>
 </file>
@@ -371,18 +7337,275 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$F$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$F$4" horiz="1" max="2100" min="1900" page="10" val="2100"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="2100" min="1900" page="10" val="2100"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$J$4" horiz="1" max="2100" min="1900" page="10" val="2000"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$J$4" horiz="1" max="2100" min="1900" page="10" val="2100"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>938212</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1195387</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1252537</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA5E29D-54ED-438C-A3C5-67856AF7BB4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D17046-6DA3-4E4D-B1D1-30774D5FC00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085F87C9-D1E6-49AC-AAEB-EB7A568A2C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -429,7 +7652,7 @@
             </a:ln>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -479,7 +7702,7 @@
             </a:ln>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -529,7 +7752,7 @@
             </a:ln>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -579,7 +7802,7 @@
             </a:ln>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -629,7 +7852,7 @@
             </a:ln>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -917,8 +8140,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,16 +8209,16 @@
         <v>28</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" t="s">
         <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1019,8 +8242,8 @@
         <v>100000</v>
       </c>
       <c r="I2">
-        <f>H2*0.63</f>
-        <v>63000</v>
+        <f>Calculations!N12</f>
+        <v>53321.142857142855</v>
       </c>
       <c r="J2">
         <f>E2*Calculations!C12</f>
@@ -1028,7 +8251,7 @@
       </c>
       <c r="K2">
         <f>H2-I2-J2</f>
-        <v>34600</v>
+        <v>44278.857142857145</v>
       </c>
       <c r="L2" s="1">
         <v>10</v>
@@ -1038,28 +8261,33 @@
       </c>
       <c r="N2">
         <f>M2*1.4*(0.02*E2*Calculations!C14+K2*0.01*Calculations!C13)</f>
-        <v>109947.95333732512</v>
+        <v>253131.74850271604</v>
       </c>
       <c r="O2">
-        <f>(1-Calculations!L3)*Calculations!I3/Calculations!C3*Urban1!E2</f>
-        <v>8962965.4387034979</v>
+        <v>3500000</v>
       </c>
       <c r="P2">
-        <f>Input!F4</f>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q2">
         <f>Input!H4</f>
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="R2">
-        <f>Input!J4</f>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="S2">
         <f>MIN(P2:R2)</f>
-        <v>2000</v>
-      </c>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>14480518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
@@ -1098,7 +8326,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,24 +8342,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9D5F49-752D-4EAC-A94D-A2375B8D9A28}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:Y84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1153,11 +8389,29 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1180,11 +8434,38 @@
         <f>11269490562.2048*0.07*2.393758</f>
         <v>1888350323.2441568</v>
       </c>
-      <c r="L3" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>Urban1!F2*(1-Calculations!G3)/F3</f>
+        <v>79551000</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3">
+        <f>K3/Urban1!E2</f>
+        <v>265.17</v>
+      </c>
+      <c r="N3">
+        <f>Calculations!I3/Calculations!C3*Urban1!E2</f>
+        <v>14938275.731172498</v>
+      </c>
+      <c r="P3">
+        <f>0.519*R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>-0.0004*M3^2+1.2015*M3+247.52</f>
+        <v>537.99570344000006</v>
+      </c>
+      <c r="U3">
+        <f>19398*EXP(-5.899*(Urban1!K2/Urban1!H2))</f>
+        <v>1423.5591581571632</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -1194,8 +8475,20 @@
       <c r="I11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1212,14 +8505,28 @@
       <c r="I12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>O12*P12/Q12</f>
+        <v>53321.142857142855</v>
+      </c>
+      <c r="O12">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="P12">
+        <f>(0.48+0.16)*0.75*Urban1!E2</f>
+        <v>144000</v>
+      </c>
+      <c r="Q12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13">
-        <f>Urban1!O2*(1-0.04)/Urban1!I2</f>
-        <v>136.57852097071998</v>
+        <f>Urban1!O4*(1-0.04)/Urban1!I2</f>
+        <v>260.70891460905352</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1231,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +8556,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>400</v>
       </c>
@@ -1260,7 +8567,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>600</v>
       </c>
@@ -1271,7 +8578,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>800</v>
       </c>
@@ -1282,7 +8589,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1000</v>
       </c>
@@ -1292,8 +8599,15 @@
       <c r="I18">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <f>N3/(Urban1!I2+Calculations!N3*0.5196*(18.8*Urban1!H2/Urban1!I2/(129.14*(Urban1!K2/Urban1!H2)^(-2.232))))</f>
+        <v>37.603544650118934</v>
+      </c>
+    </row>
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>1200</v>
       </c>
@@ -1304,7 +8618,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>1400</v>
       </c>
@@ -1314,8 +8628,11 @@
       <c r="I20">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>1600</v>
       </c>
@@ -1326,9 +8643,667 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>Urban1!K2/Urban1!H2</f>
+        <v>0.44278857142857148</v>
+      </c>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f>Urban1!I2/Urban1!E2*600*0.7*0.9/T3</f>
+        <v>0.12487951032027668</v>
+      </c>
+      <c r="P29">
+        <f>Urban1!H2/(Urban1!I2*2*0.07*U3)*0.5196*2.64527</f>
+        <v>1.2934097917495826E-2</v>
+      </c>
+      <c r="Q29">
+        <f>0.0056*0.025*600*0.9*0.7/(230*Urban1!E2)</f>
+        <v>7.669565217391304E-10</v>
+      </c>
+      <c r="R29">
+        <f>0.09/Urban1!I2-Q29*4.572/0.0056</f>
+        <v>1.0617205850778317E-6</v>
+      </c>
+      <c r="S29">
+        <f>0.34*K3-K3*0.89154*O29</f>
+        <v>18190523.159830138</v>
+      </c>
+      <c r="T29">
+        <f>2*Q29-S29*Q29^2+P29*Q29*R29*S29+0.001092*K3*Q29*R29*O29-0.001092*K3*P29*R29^2*O29</f>
+        <v>1.5654649090963224E-9</v>
+      </c>
+      <c r="U29">
+        <f>1-2*Q29*S29+P29*R29*S29+0.001092*K3*R29*O29</f>
+        <v>1.2334146278718976</v>
+      </c>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f>Q29^2</f>
+        <v>5.8822230623818523E-19</v>
+      </c>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="7:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="K32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="12">
+        <v>7400</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="M33" s="12">
+        <v>5200</v>
+      </c>
+      <c r="O33">
+        <f>((T29+R29*S29+1)^2-4*R29*S29*T29)^0.5</f>
+        <v>20.313252890715368</v>
+      </c>
+      <c r="P33">
+        <f>T29+1+R29*S29</f>
+        <v>20.313252893692166</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="M34" s="12">
+        <v>3500</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34">
+        <f>(P33+O33)/(2*T29*R29)</f>
+        <v>1.2221539072606796E+16</v>
+      </c>
+      <c r="R34">
+        <v>5.8822230623818523E-19</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="12">
+        <v>2400</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35">
+        <f>(P33-O33)/(2*T29*R29)</f>
+        <v>895500.26397229987</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L36" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L38" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="M38" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="L39" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M39" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="L40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M40" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G43" s="12">
+        <v>120</v>
+      </c>
+      <c r="H43" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G44" s="12">
+        <v>160</v>
+      </c>
+      <c r="H44" s="12">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G45" s="12">
+        <v>200</v>
+      </c>
+      <c r="H45" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="P45" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G46" s="12">
+        <v>240</v>
+      </c>
+      <c r="H46" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G47" s="12">
+        <v>280</v>
+      </c>
+      <c r="H47" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G48" s="12">
+        <v>320</v>
+      </c>
+      <c r="H48" s="12">
+        <v>6.35</v>
+      </c>
+      <c r="Q48">
+        <v>1.5</v>
+      </c>
+      <c r="R48">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G49" s="12">
+        <v>360</v>
+      </c>
+      <c r="H49" s="12">
+        <v>6.6</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G50" s="12">
+        <v>400</v>
+      </c>
+      <c r="H50" s="12">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="51" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G51" s="12">
+        <v>440</v>
+      </c>
+      <c r="H51" s="12">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G52" s="12">
+        <v>480</v>
+      </c>
+      <c r="H52" s="12">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="53" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G53" s="12">
+        <v>520</v>
+      </c>
+      <c r="H53" s="12">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="54" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G54" s="12">
+        <v>560</v>
+      </c>
+      <c r="H54" s="12">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="55" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G55" s="12">
+        <v>600</v>
+      </c>
+      <c r="H55" s="12">
+        <v>8</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>74</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G56" s="12">
+        <v>640</v>
+      </c>
+      <c r="H56" s="12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="R56" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G57" s="12">
+        <v>680</v>
+      </c>
+      <c r="H57" s="12">
+        <v>8.4</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="R57" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="X57">
+        <v>2</v>
+      </c>
+      <c r="Y57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G58" s="12">
+        <v>720</v>
+      </c>
+      <c r="H58" s="12">
+        <v>8.6</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="R58" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="X58">
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G59" s="12">
+        <v>760</v>
+      </c>
+      <c r="H59" s="12">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>1</v>
+      </c>
+      <c r="R59" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="X59">
+        <v>4</v>
+      </c>
+      <c r="Y59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G60" s="12">
+        <v>800</v>
+      </c>
+      <c r="H60" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="R60" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G61" s="12">
+        <v>840</v>
+      </c>
+      <c r="H61" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="R61" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="62" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G62" s="12">
+        <v>880</v>
+      </c>
+      <c r="H62" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="Q62" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="R62" s="12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="63" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G63" s="12">
+        <v>920</v>
+      </c>
+      <c r="H63" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="K63" s="12">
+        <v>40</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>2</v>
+      </c>
+      <c r="R63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:25" x14ac:dyDescent="0.25">
+      <c r="G64" s="12">
+        <v>960</v>
+      </c>
+      <c r="H64" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K64" s="12">
+        <v>80</v>
+      </c>
+      <c r="L64" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G65" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="12">
+        <v>10</v>
+      </c>
+      <c r="K65" s="12">
+        <v>120</v>
+      </c>
+      <c r="L65" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K66" s="12">
+        <v>160</v>
+      </c>
+      <c r="L66" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K67" s="12">
+        <v>200</v>
+      </c>
+      <c r="L67" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K68" s="12">
+        <v>240</v>
+      </c>
+      <c r="L68" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K69" s="12">
+        <v>280</v>
+      </c>
+      <c r="L69" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K70" s="12">
+        <v>320</v>
+      </c>
+      <c r="L70" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K71" s="12">
+        <v>360</v>
+      </c>
+      <c r="L71" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K72" s="12">
+        <v>600</v>
+      </c>
+      <c r="L72" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>200</v>
+      </c>
+      <c r="F77">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>400</v>
+      </c>
+      <c r="F78">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>600</v>
+      </c>
+      <c r="F79">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>800</v>
+      </c>
+      <c r="F80">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>1000</v>
+      </c>
+      <c r="F81">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1200</v>
+      </c>
+      <c r="F82">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1400</v>
+      </c>
+      <c r="F83">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>1600</v>
+      </c>
+      <c r="F84">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1337,8 +9312,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,23 +9362,23 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1459,15 +9434,15 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="11">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="6">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
